--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -86,13 +86,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 6 August, 2025 9:13 AM</t>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 6 August, 2025 9:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -821,7 +821,7 @@
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="P10" s="13">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="13"/>
     </row>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -59,7 +77,13 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
@@ -78,9 +102,6 @@
   </si>
   <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -772,15 +793,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -792,66 +813,132 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c t="s" r="Q9" s="12">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -113,7 +125,7 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:28 AM</t>
+    <t>Wednesday, 6 August, 2025 9:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -892,7 +904,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -903,42 +915,75 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>218</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>236</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -62,15 +62,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>-13.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>9:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -125,7 +140,16 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:30 AM</t>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>Wednesday, 6 August, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -816,7 +840,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -825,14 +849,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -842,11 +866,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -858,14 +882,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -875,11 +899,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -891,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -908,11 +932,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -924,66 +948,132 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>44</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>45</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>243</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1112,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -68,9 +86,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -92,6 +107,33 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -125,6 +167,24 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -149,7 +209,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:59 AM</t>
+    <t>Wednesday, 6 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -862,7 +922,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -873,7 +933,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -882,31 +942,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,28 +975,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -948,20 +1008,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -988,7 +1048,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -998,14 +1058,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,14 +1074,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1031,49 +1091,247 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>243</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>47</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>48</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>45</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>470.64499999999998</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>67</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>68</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1380,40 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:01 AM</t>
+    <t>Wednesday, 6 August, 2025 10:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:13 AM</t>
+    <t>Wednesday, 6 August, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -185,6 +185,18 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -209,7 +221,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:23 AM</t>
+    <t>Wednesday, 6 August, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1252,7 +1264,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1263,7 +1275,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1289,49 +1301,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>68</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>470.64499999999998</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>66</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>67</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>68</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>496.64499999999998</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>70</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>71</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>72</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1410,10 +1455,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:24 AM</t>
+    <t>Wednesday, 6 August, 2025 10:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -95,16 +95,25 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:3</t>
+    <t>9:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -961,7 +970,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -971,14 +980,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -987,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1011,7 +1020,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1027,7 +1036,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1093,7 +1102,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1110,7 +1119,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1126,7 +1135,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,11 +1145,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1152,14 +1161,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1169,11 +1178,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1185,14 +1194,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1209,7 +1218,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1225,7 +1234,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1258,7 +1267,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,31 +1293,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1317,14 +1326,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,49 +1343,82 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>71</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>496.64499999999998</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>70</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>71</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>72</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>547.48500000000001</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>75</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1502,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:28 AM</t>
+    <t>Wednesday, 6 August, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -206,6 +206,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -215,22 +221,25 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سلاكه ازن خشب كبيره</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سلاكه ازن خشب كبيره</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>Wednesday, 6 August, 2025 10:33 AM</t>
+    <t>Wednesday, 6 August, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,18 +1348,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1376,49 +1385,82 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>73</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>19</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>547.48500000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>74</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>75</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>566.31500000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1549,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -107,13 +119,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -209,9 +224,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -239,7 +251,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:35 AM</t>
+    <t>Wednesday, 6 August, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -963,7 +975,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -972,14 +984,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -996,7 +1008,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1005,14 +1017,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1029,7 +1041,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1045,7 +1057,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,14 +1067,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1071,14 +1083,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1100,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1104,7 +1116,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1121,11 +1133,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1220,11 +1232,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,11 +1298,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1302,14 +1314,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1331,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,14 +1347,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,14 +1364,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,31 +1380,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,14 +1413,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,49 +1430,82 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>75</v>
       </c>
-      <c t="s" r="Q23" s="12">
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>77</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>566.31500000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>76</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>77</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>78</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>594.03499999999997</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>81</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>82</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1599,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -251,7 +251,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:36 AM</t>
+    <t>Wednesday, 6 August, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -80,6 +80,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -167,6 +176,18 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -227,9 +248,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -251,7 +269,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 10:54 AM</t>
+    <t>Wednesday, 6 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -958,7 +976,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -968,11 +986,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -984,14 +1002,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1001,14 +1019,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1017,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,14 +1052,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1057,7 +1075,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1067,14 +1085,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1083,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1100,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1123,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1189,7 +1207,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1206,7 +1224,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1222,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1232,11 +1250,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1248,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,11 +1283,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1281,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1305,7 +1323,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1321,7 +1339,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1331,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1347,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1371,7 +1389,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1387,7 +1405,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1397,11 +1415,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1413,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,66 +1464,132 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>56</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c t="s" r="Q24" s="12">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>594.03499999999997</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>80</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>81</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>82</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>908.03499999999997</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>86</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>87</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>88</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1604,10 +1688,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -269,7 +269,16 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:00 AM</t>
+    <t>ملقاط</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 6 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,38 +1567,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>908.03499999999997</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>86</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>74</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>19</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>87</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>918.03499999999997</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1698,10 +1740,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -251,10 +251,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>سلاكه ازن خشب كبيره</t>
@@ -278,7 +278,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:11 AM</t>
+    <t>Wednesday, 6 August, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,7 +1480,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1494,10 +1494,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="P28" s="13">
-        <v>918.03499999999997</v>
+        <v>936.86500000000001</v>
       </c>
       <c r="Q28" s="13"/>
     </row>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -278,7 +290,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:22 AM</t>
+    <t>Wednesday, 6 August, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1035,7 +1047,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1068,7 +1080,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,14 +1089,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1101,7 +1113,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1110,14 +1122,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1134,7 +1146,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1143,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1167,7 +1179,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1176,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,11 +1205,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1209,7 +1221,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1226,11 +1238,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1242,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1271,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1275,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1381,7 +1393,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,11 +1436,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1440,14 +1452,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1464,7 +1476,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1480,7 +1492,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,14 +1502,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1546,7 +1558,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1556,14 +1568,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1579,7 +1591,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1589,49 +1601,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>936.86500000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>89</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>78</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>91</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>969.86500000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1790,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -290,7 +290,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:23 AM</t>
+    <t>Wednesday, 6 August, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -290,7 +302,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:30 AM</t>
+    <t>Wednesday, 6 August, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,7 +1141,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1139,11 +1151,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1155,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1179,7 +1191,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1212,7 +1224,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1254,7 +1266,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1271,11 +1283,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1304,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1426,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1509,7 +1521,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1525,7 +1537,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,31 +1563,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1591,7 +1603,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1624,7 +1636,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1634,49 +1646,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>969.86500000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>93</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>94</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>82</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>19</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>95</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1021.345</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>97</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>98</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>99</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1840,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -89,6 +101,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -161,9 +182,6 @@
     <t>79.6800</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -200,6 +218,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
   </si>
   <si>
@@ -302,7 +329,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:31 AM</t>
+    <t>Wednesday, 6 August, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -982,18 +1009,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1002,20 +1029,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1026,7 +1053,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1035,14 +1062,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1059,7 +1086,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1075,7 +1102,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1085,11 +1112,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1101,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1118,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1134,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,11 +1178,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1167,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,7 +1251,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,14 +1260,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,11 +1277,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1266,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1290,7 +1317,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1306,7 +1333,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1339,7 +1366,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1356,7 +1383,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1372,7 +1399,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1382,14 +1409,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1415,14 +1442,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1448,14 +1475,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1481,14 +1508,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1557,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,14 +1574,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,14 +1590,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,7 +1669,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1653,7 +1680,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1669,59 +1696,158 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1021.345</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>73</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>23</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c t="s" r="Q30" s="12">
         <v>98</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>99</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>100</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>23</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>103</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>91</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>23</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>104</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1126.2850000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>106</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>107</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>108</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1845,10 +1971,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -296,6 +305,18 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -329,7 +350,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:40 AM</t>
+    <t>Wednesday, 6 August, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1651,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1647,7 +1668,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1663,7 +1684,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,31 +1743,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1805,49 +1826,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
       </c>
-      <c t="s" r="Q32" s="12">
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>107</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>108</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1126.2850000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>106</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>107</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>108</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>110</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>94</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>23</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>111</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1175.2850000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>113</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>114</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>115</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1986,10 +2073,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -272,6 +272,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -350,7 +362,7 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:44 AM</t>
+    <t>Wednesday, 6 August, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1663,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1734,7 +1746,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1750,7 +1762,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1776,31 +1788,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1816,7 +1828,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1849,7 +1861,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1882,7 +1894,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1892,49 +1904,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1175.2850000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>113</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>114</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>98</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>115</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1179.2850000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>117</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>118</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>119</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2083,10 +2128,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>ملقاط</t>
   </si>
   <si>
@@ -362,7 +371,13 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:52 AM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 6 August, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1948,38 +1963,104 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1179.2850000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>117</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>98</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>118</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>119</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>26</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>23</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>89</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1269.2850000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>122</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>123</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>124</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2133,10 +2214,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -173,13 +185,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>8:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>79.6800</t>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -338,9 +353,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
@@ -377,7 +389,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:56 AM</t>
+    <t>Wednesday, 6 August, 2025 11:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,24 +1129,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1143,14 +1155,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,11 +1172,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1176,14 +1188,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1200,7 +1212,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1233,7 +1245,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1266,7 +1278,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1287,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,14 +1304,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1315,7 +1327,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,11 +1337,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1341,14 +1353,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1365,7 +1377,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1381,7 +1393,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1436,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1457,11 +1469,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,14 +1502,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1518,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,14 +1535,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,14 +1568,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,11 +1601,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1605,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,11 +1700,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1704,14 +1716,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1848,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1926,7 +1938,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1942,7 +1954,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,11 +1964,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,11 +1997,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,49 +2030,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1269.2850000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>122</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>123</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>124</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>23</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>94</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1297.125</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>126</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>127</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>128</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2224,10 +2269,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -365,6 +374,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>شاش 10 سم</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -389,7 +410,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 11:57 AM</t>
+    <t>Wednesday, 6 August, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,24 +1579,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,14 +1638,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,11 +1655,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1650,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,11 +1688,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1683,14 +1704,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1707,7 +1728,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1723,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1733,11 +1754,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1749,14 +1770,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1773,7 +1794,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1789,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1806,7 +1827,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1822,7 +1843,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1865,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1902,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1938,7 +1959,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1954,7 +1975,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2020,7 +2041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2030,11 +2051,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2063,49 +2084,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1297.125</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>126</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>127</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>128</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>106</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>23</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>129</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>131</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>97</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1390.125</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>133</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>134</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>135</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2274,10 +2361,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>راجون احمر 250 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -410,7 +428,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 12:38 PM</t>
+    <t>Wednesday, 6 August, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,7 +1498,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1546,7 +1564,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1563,7 +1581,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1585,7 +1603,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1612,24 +1630,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1688,11 +1706,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1721,11 +1739,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1761,7 +1779,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1777,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1827,7 +1845,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1860,7 +1878,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1876,7 +1894,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1935,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1992,7 +2010,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,7 +2040,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,11 +2102,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2140,7 +2158,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2150,49 +2168,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1390.125</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>133</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>134</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>109</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>135</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>137</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>26</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>100</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1462.7449999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>139</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>140</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>141</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2371,10 +2455,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>جونتي عمال</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -407,12 +416,6 @@
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>ملقاط</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 12:40 PM</t>
+    <t>Wednesday, 6 August, 2025 12:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2029,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2059,7 +2062,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2151,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2217,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,49 +2237,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1462.7449999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>138</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>26</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>100</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>139</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c t="s" r="Q43" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1512.7449999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>140</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
         <v>141</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>142</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2465,10 +2501,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -431,7 +440,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 12:41 PM</t>
+    <t>Wednesday, 6 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,15 +1681,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,11 +1751,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1815,7 +1824,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1857,14 +1866,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1881,7 +1890,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1914,7 +1923,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1930,7 +1939,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1989,31 +1998,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2022,14 +2031,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2062,7 +2071,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,11 +2081,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2095,7 +2104,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2114,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2128,7 +2137,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2171,11 +2180,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2237,11 +2246,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2260,7 +2269,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2270,49 +2279,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1512.7449999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>140</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>141</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>26</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>23</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>103</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1524.7449999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>143</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>144</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>145</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2506,10 +2548,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -116,9 +125,6 @@
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>69.3000</t>
   </si>
   <si>
@@ -182,6 +188,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -320,9 +335,6 @@
     <t>2:5</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>4.0000</t>
   </si>
   <si>
@@ -437,10 +449,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 6 August, 2025 1:07 PM</t>
+    <t>Wednesday, 6 August, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,24 +1156,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1173,31 +1182,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1206,20 +1215,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1230,7 +1239,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1246,7 +1255,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1279,7 +1288,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1305,14 +1314,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1322,14 +1331,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1355,14 +1364,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1371,14 +1380,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1388,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1421,11 +1430,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1470,14 +1479,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,14 +1496,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1520,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1553,11 +1562,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1569,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1602,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,31 +1644,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,31 +1677,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,31 +1710,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,31 +1743,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,31 +2073,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,31 +2106,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,31 +2139,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,31 +2172,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2196,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,31 +2238,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2262,20 +2271,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2286,7 +2295,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2302,59 +2311,125 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>142</v>
       </c>
-      <c t="s" r="Q44" s="12">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>116</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1524.7449999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>143</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>144</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c t="s" r="Q45" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>145</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>29</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>26</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>60</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1669.7449999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>146</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>147</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>148</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2553,10 +2628,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -248,6 +260,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -287,9 +308,6 @@
     <t>LIMITLESS MAN MAX 30 TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -347,6 +365,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>RELATROLENE 25 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -356,6 +383,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -449,7 +485,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:09 PM</t>
+    <t>Wednesday, 6 August, 2025 1:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1588,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1598,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1614,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,11 +1631,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1611,14 +1647,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,11 +1664,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1644,7 +1680,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1661,11 +1697,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1677,14 +1713,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,14 +1730,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,31 +1746,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1743,20 +1779,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1764,10 +1800,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,31 +1812,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,31 +1845,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1859,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1911,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,11 +1928,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -1908,14 +1944,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,14 +1994,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1981,7 +2017,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1998,7 +2034,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2014,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,7 +2060,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2047,7 +2083,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2073,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2126,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,20 +2142,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2130,7 +2166,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2146,13 +2182,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2163,7 +2199,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2193,7 +2229,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2205,31 +2241,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2238,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,11 +2291,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2271,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,11 +2324,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2304,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,11 +2357,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2344,7 +2380,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2361,7 +2397,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2377,7 +2413,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,49 +2423,181 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1669.7449999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>146</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>147</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>148</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>150</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>26</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>151</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>153</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>128</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>26</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>137</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>154</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>128</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>26</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>155</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>157</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>29</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>26</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>60</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1935.3250000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>158</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>159</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>160</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2638,10 +2806,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:20 PM</t>
+    <t>Wednesday, 6 August, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -485,7 +485,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:22 PM</t>
+    <t>Wednesday, 6 August, 2025 1:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -374,6 +374,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:33 PM</t>
+    <t>Wednesday, 6 August, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2166,7 +2175,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2215,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,31 +2283,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2347,7 +2356,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2380,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2413,7 +2422,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2456,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -2472,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2489,11 +2498,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2522,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2545,7 +2554,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2555,49 +2564,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1935.3250000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>158</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>159</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>160</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>29</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>26</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>60</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2015.2249999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>161</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>162</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>163</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2826,10 +2868,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -494,7 +503,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:34 PM</t>
+    <t>Wednesday, 6 August, 2025 1:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1812,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1861,7 +1870,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1900,15 +1909,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1927,7 +1936,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,11 +1979,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2012,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>29</v>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2043,7 +2052,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,7 +2078,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2092,7 +2101,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2125,7 +2134,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2142,7 +2151,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2158,7 +2167,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2257,7 +2266,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,31 +2325,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2389,7 +2398,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2399,11 +2408,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2422,7 +2431,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2587,7 +2596,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,49 +2606,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2015.2249999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>161</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>162</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>163</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>29</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>26</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>60</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2070.665</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>164</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>165</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>166</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2873,10 +2915,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -101,6 +113,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CEFAXONE 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -122,6 +149,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -152,6 +188,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -287,6 +329,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HEDRALEDOX SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
@@ -326,9 +377,6 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -374,6 +422,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>RELATROLENE 25 MG 20 CAPS.</t>
   </si>
   <si>
@@ -413,9 +470,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -461,15 +515,21 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -503,7 +563,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:52 PM</t>
+    <t>Wednesday, 6 August, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,18 +1309,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1269,31 +1329,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1309,7 +1369,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1319,14 +1379,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1335,31 +1395,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1368,14 +1428,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1385,14 +1445,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1401,14 +1461,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1418,11 +1478,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1434,14 +1494,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,14 +1511,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1467,14 +1527,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1484,14 +1544,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1500,14 +1560,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1540,7 +1600,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,14 +1610,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1566,14 +1626,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1676,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,11 +1709,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1665,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,14 +1742,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1722,7 +1782,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1808,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1824,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1797,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,11 +1874,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1830,14 +1890,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,31 +1923,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,28 +1956,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1929,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1962,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2072,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,20 +2088,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2052,7 +2112,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2068,21 +2128,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2111,7 +2171,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2134,7 +2194,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2151,7 +2211,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2227,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2184,7 +2244,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2200,7 +2260,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2259,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,11 +2336,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2292,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2316,7 +2376,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2332,24 +2392,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2418,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2451,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,20 +2484,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2445,10 +2505,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,31 +2517,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,20 +2550,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2514,7 +2574,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2530,21 +2590,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2556,31 +2616,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2596,13 +2656,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2613,7 +2673,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2629,59 +2689,290 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2070.665</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>164</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>165</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>166</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>82</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>30</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>167</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>169</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>82</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>30</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>170</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>172</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>38</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>30</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>173</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>175</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>176</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>30</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>177</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>179</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>107</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>30</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>161</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>180</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>107</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>30</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>181</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>183</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>33</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>30</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>74</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2535.9050000000002</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>184</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>185</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>186</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2920,10 +3211,45 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEFAXONE 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -398,12 +407,6 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -479,6 +482,18 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -515,9 +530,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -563,7 +575,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 1:59 PM</t>
+    <t>Wednesday, 6 August, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1369,7 +1381,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1379,14 +1391,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1395,31 +1407,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1428,20 +1440,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1452,7 +1464,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1501,7 +1513,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1511,11 +1523,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1527,14 +1539,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1544,14 +1556,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,14 +1572,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1577,14 +1589,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1593,14 +1605,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1610,14 +1622,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1638,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1643,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1688,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1732,7 +1744,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1749,7 +1761,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,7 +1777,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,14 +1787,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1820,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1848,7 +1860,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,7 +1876,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1897,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1996,7 +2008,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2046,7 +2058,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2062,7 +2074,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,7 +2084,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2095,17 +2107,17 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2128,7 +2140,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,15 +2179,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2194,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,7 +2239,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2260,7 +2272,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,11 +2282,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>33</v>
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2310,7 +2322,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,31 +2397,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,7 +2430,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2431,15 +2443,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,7 +2496,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,24 +2635,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>33</v>
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>33</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2769,10 +2781,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,11 +2876,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2920,7 +2932,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,49 +2942,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2535.9050000000002</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>184</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>110</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>30</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>185</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>186</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>187</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>33</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>30</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>77</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2603.9050000000002</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>188</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>189</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>190</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3246,10 +3324,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 2:08 PM</t>
+    <t>Wednesday, 6 August, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -425,6 +425,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>REALCOXSTAR 90MG 14TAB</t>
   </si>
   <si>
@@ -575,7 +587,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 2:19 PM</t>
+    <t>Wednesday, 6 August, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2437,24 +2449,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,7 +2475,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2476,15 +2488,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2529,7 +2541,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2546,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2628,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2673,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2734,7 +2746,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -2793,14 +2805,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,14 +2822,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,7 +2838,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2843,14 +2855,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,14 +2888,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2932,7 +2944,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2942,11 +2954,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -2958,7 +2970,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2975,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -2991,14 +3003,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3008,49 +3020,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2603.9050000000002</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>188</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>189</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>190</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>191</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>33</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>30</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>77</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2645.9050000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>192</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>193</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>194</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3334,10 +3379,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -455,6 +455,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -587,7 +599,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 2:20 PM</t>
+    <t>Wednesday, 6 August, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2548,7 +2560,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,7 +2586,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,31 +2718,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,7 +2883,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2977,7 +2989,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,11 +2999,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,49 +3065,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2645.9050000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>192</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>193</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>194</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>195</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>33</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>30</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>77</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2652.9549999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>196</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>197</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>198</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3384,10 +3429,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 2:35 PM</t>
+    <t>Wednesday, 6 August, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
@@ -467,6 +476,9 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ROYAL ANISE 50 FILTER BAGS</t>
+  </si>
+  <si>
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
@@ -497,12 +509,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -599,7 +605,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 3:20 PM</t>
+    <t>Wednesday, 6 August, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2038,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2049,7 +2055,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2065,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2115,7 +2121,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2131,7 +2137,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2141,7 +2147,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2164,17 +2170,17 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2197,7 +2203,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2236,15 +2242,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2263,7 +2269,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2296,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2329,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,11 +2345,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2428,7 +2434,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2461,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,11 +2477,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>33</v>
@@ -2487,20 +2493,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2511,7 +2517,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2533,7 +2539,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2560,7 +2566,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2610,7 +2616,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2626,7 +2632,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2758,21 +2764,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -2784,31 +2790,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>33</v>
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>166</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3098,49 +3104,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2652.9549999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>113</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>30</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>195</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>196</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c t="s" r="Q64" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>197</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>33</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>30</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>77</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2723.9549999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
         <v>198</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3434,10 +3506,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>101.00</t>
   </si>
   <si>
-    <t>50.5000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
@@ -605,7 +605,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 3:22 PM</t>
+    <t>Wednesday, 6 August, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1906,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1923,7 +1923,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -3182,7 +3182,7 @@
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="P66" s="13">
-        <v>2723.9549999999999</v>
+        <v>2673.4549999999999</v>
       </c>
       <c r="Q66" s="13"/>
     </row>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:32 PM</t>
+    <t>Wednesday, 6 August, 2025 4:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1882,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>33</v>
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1923,7 +1932,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1956,7 +1965,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1972,7 +1981,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2038,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2055,7 +2064,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2080,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2088,7 +2097,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2113,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2154,7 +2163,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,7 +2179,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,7 +2189,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2203,17 +2212,17 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2236,7 +2245,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2275,15 +2284,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2302,7 +2311,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2368,7 +2377,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2467,7 +2476,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2526,20 +2535,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2550,7 +2559,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2599,7 +2608,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>33</v>
@@ -2715,7 +2724,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2764,7 +2773,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,31 +2832,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2929,7 +2938,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -2962,7 +2971,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>168</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3045,7 +3054,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,7 +3070,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3080,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>33</v>
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3113,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,11 +3146,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>33</v>
@@ -3160,7 +3169,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,49 +3179,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>200</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>33</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>30</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>77</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>78</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2673.4549999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>198</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>199</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>200</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2707.4549999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>201</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>202</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>203</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3558,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -614,7 +614,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:38 PM</t>
+    <t>Wednesday, 6 August, 2025 4:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -236,9 +245,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -560,9 +566,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -602,6 +605,9 @@
     <t>شمع حريمي</t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
     <t>ملقاط</t>
   </si>
   <si>
@@ -614,7 +620,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:41 PM</t>
+    <t>Wednesday, 6 August, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1657,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1667,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1677,14 +1683,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,14 +1700,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1733,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1816,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1830,10 +1836,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,14 +1865,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,11 +1931,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>33</v>
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1964,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2057,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2073,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2172,7 +2178,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2228,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2238,28 +2244,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>33</v>
@@ -2271,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,28 +2310,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>33</v>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2552,11 +2558,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2568,31 +2574,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,7 +2607,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2614,15 +2620,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>33</v>
@@ -2733,7 +2739,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,11 +2789,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>33</v>
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>33</v>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,11 +2987,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>171</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3036,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,14 +3053,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3129,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3146,11 +3152,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>33</v>
@@ -3169,7 +3175,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>33</v>
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,49 +3218,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2707.4549999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>199</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>118</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>30</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>200</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c t="s" r="Q67" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>202</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>33</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>30</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>79</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2777.4549999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>203</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>204</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3563,10 +3635,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -620,7 +638,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:45 PM</t>
+    <t>Wednesday, 6 August, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,24 +1411,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1419,31 +1437,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1459,7 +1477,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1487,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,31 +1503,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,20 +1536,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1542,7 +1560,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1591,7 +1609,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1601,11 +1619,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1617,14 +1635,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1652,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1668,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1674,7 +1692,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1690,7 +1708,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1718,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1734,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1751,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1767,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1784,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1817,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1836,7 +1854,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1883,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1888,7 +1906,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1916,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1949,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1954,7 +1972,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +1982,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +1998,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2004,7 +2022,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2020,7 +2038,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2037,7 +2055,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2053,7 +2071,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2119,7 +2137,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2136,7 +2154,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2152,7 +2170,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2169,7 +2187,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2185,7 +2203,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2218,7 +2236,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2235,7 +2253,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2251,7 +2269,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2284,24 +2302,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2317,24 +2335,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2356,15 +2374,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2383,7 +2401,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2411,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2433,7 +2451,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2449,7 +2467,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,11 +2543,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,31 +2625,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2664,7 +2682,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2680,21 +2698,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2706,14 +2724,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2741,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2812,7 +2830,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2829,7 +2847,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2845,7 +2863,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2922,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,31 +2955,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +2988,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,31 +3021,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3054,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>173</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3087,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,31 +3120,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3142,24 +3160,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,31 +3186,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,31 +3219,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3252,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,66 +3285,132 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q68" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>121</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2777.4549999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>203</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>204</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>205</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>206</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>36</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>33</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>82</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2835.645</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>209</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>210</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>211</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3729,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -521,6 +521,9 @@
     <t>79.9000</t>
   </si>
   <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -638,7 +641,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:46 PM</t>
+    <t>Wednesday, 6 August, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2863,24 +2866,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2906,11 +2909,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2962,7 +2965,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2995,24 +2998,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>36</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>36</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>36</v>
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3137,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>179</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,7 +3156,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>36</v>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>36</v>
@@ -3292,7 +3295,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>36</v>
@@ -3325,7 +3328,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>36</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3368,49 +3371,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>36</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>33</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>82</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2835.645</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>209</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c t="s" r="Q71" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2930.645</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>210</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
         <v>211</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3739,10 +3775,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 4:57 PM</t>
+    <t>Wednesday, 6 August, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
@@ -641,7 +650,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:20 PM</t>
+    <t>Wednesday, 6 August, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2347,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2371,7 +2380,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2410,15 +2419,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2437,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2479,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2503,7 +2512,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>36</v>
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2553,7 +2562,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2635,7 +2644,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2668,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,11 +2687,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>36</v>
@@ -2694,20 +2703,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2718,7 +2727,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2767,7 +2776,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>36</v>
@@ -2866,21 +2875,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>36</v>
@@ -2892,31 +2901,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2965,7 +2974,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3033,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>36</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3130,7 +3139,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>36</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,7 +3198,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,7 +3238,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3246,7 +3255,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,7 +3271,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>36</v>
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>36</v>
@@ -3321,14 +3330,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>36</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3380,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>36</v>
@@ -3394,7 +3403,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,49 +3413,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>212</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>36</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>33</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>82</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2930.645</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>210</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>212</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2962.645</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>213</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>214</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>215</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3822,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>10.0000</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
   </si>
   <si>
     <t>مناديل شمع</t>
@@ -3436,7 +3439,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3446,49 +3449,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>213</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>36</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>33</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>82</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2962.645</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>213</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c t="s" r="Q73" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>2992.645</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>214</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
         <v>215</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>216</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3827,10 +3863,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -653,7 +653,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:23 PM</t>
+    <t>Wednesday, 6 August, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -95,6 +95,21 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CALAMINE LOTION 120 ML NOVEX</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -119,9 +134,6 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -290,9 +302,6 @@
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -389,6 +407,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
@@ -476,6 +500,9 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -542,6 +569,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
   </si>
   <si>
@@ -653,7 +689,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:24 PM</t>
+    <t>Wednesday, 6 August, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1462,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1436,14 +1472,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1452,20 +1488,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1476,7 +1512,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1485,31 +1521,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1518,14 +1554,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1542,7 +1578,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1551,31 +1587,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1591,24 +1627,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1617,7 +1653,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1634,11 +1670,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1650,14 +1686,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1667,11 +1703,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1683,14 +1719,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1700,14 +1736,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1723,7 +1759,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1733,14 +1769,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1749,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1773,7 +1809,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1789,7 +1825,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1799,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1815,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1848,14 +1884,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1865,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1888,7 +1924,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1898,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1914,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1931,14 +1967,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1971,7 +2007,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2004,7 +2040,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2037,7 +2073,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2053,7 +2089,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2070,7 +2106,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2086,7 +2122,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2103,7 +2139,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,7 +2155,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2185,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2202,7 +2238,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2218,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2251,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2268,7 +2304,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2301,7 +2337,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2317,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2350,13 +2386,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2367,7 +2403,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2383,24 +2419,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2416,24 +2452,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,7 +2485,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2459,11 +2495,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2475,31 +2511,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2508,20 +2544,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2529,10 +2565,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2690,14 +2726,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2739,28 +2775,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2871,31 +2907,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2904,31 +2940,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2944,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2954,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2970,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2987,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3036,28 +3072,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3069,20 +3105,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3093,7 +3129,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3109,24 +3145,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,31 +3171,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3168,31 +3204,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3201,31 +3237,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>183</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,31 +3270,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,31 +3303,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,31 +3336,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,31 +3369,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,31 +3402,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3406,13 +3442,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3423,7 +3459,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3439,24 +3475,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,66 +3501,231 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>2992.645</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>214</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>215</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>216</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>219</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>127</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>38</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>203</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>45</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>38</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>66</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>221</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>127</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>38</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>222</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>48</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>38</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>200</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>32</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>38</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>86</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3216.645</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>226</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>227</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>228</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3868,10 +4069,35 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -689,7 +689,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:29 PM</t>
+    <t>Wednesday, 6 August, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -218,13 +218,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -638,6 +638,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -674,6 +680,9 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
     <t>ملقاط</t>
   </si>
   <si>
@@ -689,7 +698,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:30 PM</t>
+    <t>Wednesday, 6 August, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1842,7 +1851,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -3423,10 +3432,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,7 +3444,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>48</v>
@@ -3468,7 +3477,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3485,11 +3494,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,11 +3527,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3534,7 +3543,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3567,7 +3576,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>32</v>
@@ -3640,7 +3649,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,49 +3692,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>32</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>38</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>86</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3216.645</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>226</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>227</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>228</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3238.5250000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>229</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>230</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>231</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4094,10 +4136,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
     <t>47.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -182,9 +191,6 @@
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -362,6 +368,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
@@ -410,9 +425,6 @@
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
-    <t>68.00</t>
-  </si>
-  <si>
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
@@ -482,6 +494,15 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -593,6 +614,15 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -623,9 +653,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -638,9 +665,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>14:0</t>
   </si>
   <si>
@@ -698,7 +722,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:42 PM</t>
+    <t>Wednesday, 6 August, 2025 5:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1356,7 +1380,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1365,14 +1389,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1382,14 +1406,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1405,7 +1429,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1415,14 +1439,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1431,14 +1455,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1455,7 +1479,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1488,7 +1512,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1497,14 +1521,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1521,7 +1545,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1537,24 +1561,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,20 +1587,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1587,7 +1611,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1603,7 +1627,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1613,14 +1637,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,31 +1653,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,20 +1686,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1686,7 +1710,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1702,7 +1726,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1719,7 +1743,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1769,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1768,7 +1792,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1794,14 +1818,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1900,7 +1924,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,14 +1967,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2013,10 +2037,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2396,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,31 +2478,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2527,13 +2551,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2544,7 +2568,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2560,24 +2584,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,31 +2610,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,31 +2643,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2791,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2824,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2900,14 +2924,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,31 +2940,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,31 +3039,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3089,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,31 +3105,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3154,7 +3178,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3171,7 +3195,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3187,24 +3211,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,31 +3303,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,31 +3336,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,31 +3369,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3402,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,31 +3435,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3468,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3567,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3600,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3633,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3666,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,31 +3699,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,66 +3732,198 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3238.5250000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>229</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>230</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>231</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>33</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>41</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>227</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>132</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>41</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>51</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>41</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>210</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>41</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>88</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3492.5250000000001</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>237</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>238</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>239</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4141,10 +4297,30 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -722,7 +731,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 5:50 PM</t>
+    <t>Wednesday, 6 August, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1438,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1439,11 +1448,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1495,7 +1504,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1505,11 +1514,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1594,24 +1603,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1620,20 +1629,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1644,7 +1653,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1686,31 +1695,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1719,20 +1728,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1743,7 +1752,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1802,11 +1811,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1818,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1891,7 +1900,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1967,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2037,7 +2046,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2188,7 +2197,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2320,7 +2329,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2353,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2370,7 +2379,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2419,7 +2428,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2436,7 +2445,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2502,7 +2511,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2518,7 +2527,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,7 +2537,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2551,17 +2560,17 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2584,24 +2593,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2610,31 +2619,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2650,24 +2659,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2689,15 +2698,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2716,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2782,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2832,7 +2841,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,11 +2900,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2914,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,7 +2933,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2947,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3039,20 +3048,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3063,7 +3072,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3112,7 +3121,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3211,21 +3220,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3237,31 +3246,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3294,7 +3303,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3327,7 +3336,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3442,24 +3451,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,28 +3477,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3501,20 +3510,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3522,7 +3531,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3534,28 +3543,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3567,31 +3576,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3607,13 +3616,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3621,10 +3630,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3640,13 +3649,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3657,7 +3666,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3673,21 +3682,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3699,28 +3708,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3732,28 +3741,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,28 +3774,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3798,28 +3807,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3838,21 +3847,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3864,66 +3873,99 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3492.5250000000001</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>237</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>238</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>239</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>44</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>91</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3529.1550000000002</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>240</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>241</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>242</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4317,10 +4359,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -623,6 +632,21 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8440:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 100MG/5ML PD. FOR ORAL SUSP. 15 ML</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -671,9 +695,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>14:0</t>
   </si>
   <si>
@@ -731,7 +752,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 6:16 PM</t>
+    <t>Wednesday, 6 August, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,21 +1756,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1761,20 +1782,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1785,7 +1806,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1811,11 +1832,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1933,7 +1954,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,14 +1997,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,14 +2030,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2079,7 +2100,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2131,7 +2152,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2197,7 +2218,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2230,7 +2251,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2247,7 +2268,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2280,7 +2301,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2296,7 +2317,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2362,7 +2383,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2395,7 +2416,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2412,7 +2433,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2428,7 +2449,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2461,7 +2482,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2478,7 +2499,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2544,7 +2565,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2560,7 +2581,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,7 +2591,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2593,17 +2614,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2626,24 +2647,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2652,31 +2673,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2692,7 +2713,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2731,15 +2752,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2758,7 +2779,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2791,7 +2812,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2824,7 +2845,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2874,7 +2895,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2890,7 +2911,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2956,7 +2977,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,7 +2987,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2989,7 +3010,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3022,7 +3043,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3081,20 +3102,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3105,7 +3126,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3127,7 +3148,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3154,7 +3175,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3251,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3253,21 +3274,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3279,31 +3300,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,7 +3340,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3336,7 +3357,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3352,7 +3373,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3369,7 +3390,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3385,7 +3406,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3490,7 +3511,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3498,10 +3519,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,28 +3531,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3543,28 +3564,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3576,31 +3597,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,11 +3713,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,11 +3746,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3847,7 +3868,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,11 +3878,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,7 +3911,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,49 +3944,181 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3529.1550000000002</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>240</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>241</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>36</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>44</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>237</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>242</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>138</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>44</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>243</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>245</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>54</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>44</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>221</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>246</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>44</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>94</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3663.1550000000002</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>247</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>248</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>249</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4364,10 +4517,30 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -509,6 +509,12 @@
     <t>27.5000</t>
   </si>
   <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -626,6 +632,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -752,7 +770,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 6:23 PM</t>
+    <t>Wednesday, 6 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2944,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,11 +3038,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3086,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3119,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3135,31 +3153,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3168,7 +3186,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3181,15 +3199,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3218,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3234,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3300,28 +3318,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3333,31 +3351,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3597,7 +3615,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3630,28 +3648,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3663,31 +3681,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3713,11 +3731,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3746,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3762,7 +3780,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3868,7 +3886,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3878,14 +3896,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3911,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3944,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3977,11 +3995,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4010,11 +4028,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4043,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4076,49 +4094,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>54</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>44</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>227</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>252</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>44</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>94</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>95</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3663.1550000000002</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>247</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>248</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>249</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3745.1550000000002</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>253</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>254</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>255</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4537,10 +4621,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 6:27 PM</t>
+    <t>Wednesday, 6 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>C-RETARD 500MG 10 CAPS</t>
   </si>
   <si>
@@ -242,13 +251,16 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -341,6 +353,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -425,9 +446,6 @@
     <t>HEDRALEDOX SYRUP 120 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
@@ -455,9 +473,6 @@
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -518,6 +533,12 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
+    <t>NO-URIC 100MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -713,7 +734,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +791,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 6:33 PM</t>
+    <t>Wednesday, 6 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1972,7 +1993,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1989,7 +2010,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,14 +2069,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2137,7 +2158,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2168,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2220,7 +2241,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2253,7 +2274,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,11 +2300,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,11 +2432,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,11 +2465,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,28 +2679,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2757,28 +2778,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2797,24 +2818,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2830,13 +2851,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2844,10 +2865,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,11 +2927,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2995,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3087,7 +3108,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,31 +3207,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,31 +3306,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,31 +3372,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3424,7 +3445,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3457,24 +3478,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,11 +3653,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,28 +3735,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3747,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3780,31 +3801,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,11 +3851,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,7 +3900,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3919,7 +3940,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,14 +3983,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4049,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,11 +4115,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4127,11 +4148,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,49 +4181,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3745.1550000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>253</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>254</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>255</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>80</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>44</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>256</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>258</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>54</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>44</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>234</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>259</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>44</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>98</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4163.0349999999999</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>260</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>261</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>262</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4631,10 +4751,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -287,13 +299,13 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>156.00</t>
   </si>
   <si>
-    <t>51.4800</t>
+    <t>207.4800</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -440,7 +452,7 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>109.5600</t>
   </si>
   <si>
     <t>HEDRALEDOX SYRUP 120 ML</t>
@@ -572,9 +584,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -791,7 +800,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 7:12 PM</t>
+    <t>Wednesday, 6 August, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1548,7 +1557,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1647,7 +1656,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1663,7 +1672,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1689,31 +1698,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1722,31 +1731,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1779,7 +1788,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1821,20 +1830,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1861,24 +1870,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1887,7 +1896,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1904,11 +1913,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,11 +1946,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2019,14 +2028,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2076,7 +2085,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2085,14 +2094,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2102,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2274,7 +2283,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2307,7 +2316,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,11 +2342,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,7 +2391,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,28 +2754,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2778,31 +2787,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2811,31 +2820,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2844,31 +2853,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2877,28 +2886,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3016,7 +3025,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3042,7 +3051,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3059,11 +3068,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,11 +3101,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3108,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3134,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,7 +3150,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3158,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,11 +3266,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,11 +3299,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3313,13 +3322,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3330,7 +3339,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3379,7 +3388,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3398,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3484,15 +3493,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3504,31 +3513,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3544,7 +3553,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3561,7 +3570,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3594,7 +3603,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3619,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3841,24 +3850,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,28 +3876,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3900,20 +3909,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3933,28 +3942,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3966,31 +3975,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,31 +4008,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>54</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4039,13 +4048,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4056,7 +4065,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4072,21 +4081,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4098,28 +4107,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4131,28 +4140,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4164,28 +4173,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4197,28 +4206,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4237,21 +4246,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4263,66 +4272,99 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4163.0349999999999</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>260</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>261</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>262</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>48</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>102</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4386.5950000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>263</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>264</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>265</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4766,10 +4808,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -86,13 +86,16 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
@@ -119,9 +122,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -185,9 +185,6 @@
     <t>207.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>CEFIXIME 100MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -506,6 +503,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -581,6 +587,9 @@
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -674,6 +683,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -722,12 +743,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>جونتي عمال</t>
   </si>
   <si>
@@ -743,7 +758,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -800,7 +815,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 7:14 PM</t>
+    <t>Wednesday, 6 August, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1557,7 +1572,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1566,14 +1581,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1583,11 +1598,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1599,7 +1614,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1616,11 +1631,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1821,7 +1836,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1830,14 +1845,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,11 +1862,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,11 +1895,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1896,7 +1911,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1913,11 +1928,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1929,7 +1944,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1950,7 +1965,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1962,7 +1977,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1979,11 +1994,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1995,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2012,11 +2027,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2028,7 +2043,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2045,14 +2060,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2061,7 +2076,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2078,11 +2093,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,7 +2142,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2144,11 +2159,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,11 +2225,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -2226,7 +2241,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2243,11 +2258,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2259,7 +2274,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,7 +2340,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2342,11 +2357,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2358,7 +2373,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2391,7 +2406,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2408,11 +2423,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>40</v>
@@ -2424,7 +2439,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2441,11 +2456,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,11 +2489,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2490,7 +2505,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2523,7 +2538,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2540,11 +2555,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2556,7 +2571,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2573,11 +2588,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2589,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,11 +2621,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2655,7 +2670,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2688,7 +2703,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2705,11 +2720,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2721,7 +2736,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2787,7 +2802,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2820,7 +2835,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2837,11 +2852,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2918,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2952,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,7 +3099,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3101,7 +3116,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3124,7 +3139,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,11 +3149,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,14 +3182,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>179</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3200,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,11 +3248,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3348,31 +3363,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,28 +3429,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,7 +3528,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3526,15 +3541,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3579,28 +3594,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3765,10 +3780,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,7 +3792,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3794,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,31 +3891,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,28 +3924,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3942,28 +3957,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3975,31 +3990,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4091,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,14 +4205,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4239,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>84</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4289,11 +4304,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,49 +4337,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4386.5950000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>262</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>40</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>48</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>258</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>263</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>83</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>48</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>264</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>265</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>25</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>48</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>225</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>267</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>48</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>101</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4622.5950000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>268</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>269</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>270</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4813,10 +4960,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -815,7 +815,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 7:19 PM</t>
+    <t>Wednesday, 6 August, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
@@ -662,6 +671,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
   </si>
   <si>
@@ -815,7 +833,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 7:26 PM</t>
+    <t>Wednesday, 6 August, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2842,7 +2860,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2868,31 +2886,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2908,7 +2926,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2922,10 +2940,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,28 +2952,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2974,7 +2992,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3007,7 +3025,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3040,7 +3058,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3073,7 +3091,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3123,7 +3141,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3149,11 +3167,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,7 +3249,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3271,7 +3289,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3281,7 +3299,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3304,7 +3322,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,11 +3365,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3380,11 +3398,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3431,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3436,13 +3454,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3453,7 +3471,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3475,7 +3493,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3502,7 +3520,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3530,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3596,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3601,21 +3619,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3627,31 +3645,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3667,7 +3685,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3684,7 +3702,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3718,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3717,7 +3735,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3733,7 +3751,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,11 +3761,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3860,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,7 +4008,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,28 +4041,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4056,31 +4074,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4096,7 +4114,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4124,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,11 +4157,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4155,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4172,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4261,7 +4279,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4289,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,11 +4322,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4320,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,11 +4355,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4370,11 +4388,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4403,11 +4421,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4436,11 +4454,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4469,49 +4487,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>272</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>25</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>48</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>231</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>273</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>12</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>48</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>101</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>102</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4622.5950000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>268</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>269</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>270</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4901.0950000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>274</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>275</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>276</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4980,10 +5064,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -680,6 +680,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
   </si>
   <si>
@@ -716,6 +725,15 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -833,7 +851,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:00 PM</t>
+    <t>Wednesday, 6 August, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3817,7 +3835,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3883,7 +3901,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3909,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,7 +4092,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,28 +4125,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4140,31 +4158,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4180,7 +4198,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,11 +4208,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4206,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4239,7 +4257,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>255</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4345,7 +4363,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>55</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4454,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4520,11 +4538,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4553,49 +4571,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>25</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>48</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>234</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>279</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>48</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>101</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>102</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4901.0950000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>274</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>275</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>276</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4973.5950000000003</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>280</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>281</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>282</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5074,10 +5158,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -74,12 +74,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>-36.6300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
-    <t>111.00</t>
-  </si>
-  <si>
     <t>36.6300</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -290,9 +299,6 @@
     <t>-13.0000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -836,6 +842,9 @@
     <t>مجموعه برد</t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>ملقاط</t>
   </si>
   <si>
@@ -851,7 +860,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:01 PM</t>
+    <t>Wednesday, 6 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1558,7 +1567,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1568,14 +1577,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1584,14 +1593,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1601,14 +1610,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1690,7 +1699,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1723,7 +1732,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1733,14 +1742,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1773,7 +1782,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1789,24 +1798,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1815,20 +1824,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1839,7 +1848,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1855,7 +1864,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1921,21 +1930,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1947,20 +1956,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1971,7 +1980,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1997,11 +2006,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2317,7 +2326,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2331,10 +2340,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,7 +2484,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2574,7 +2583,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,11 +2765,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2845,21 +2854,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2871,31 +2880,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,11 +2930,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2937,31 +2946,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,31 +2979,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3010,21 +3019,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,7 +3210,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3218,7 +3227,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3241,7 +3250,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3432,7 +3441,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3449,11 +3458,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,11 +3491,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3498,31 +3507,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,7 +3540,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3544,15 +3553,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,11 +3590,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,11 +3656,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3663,28 +3672,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3696,31 +3705,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,7 +3771,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,7 +3837,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +3986,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,11 +4019,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,31 +4200,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,28 +4233,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4264,21 +4273,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4297,21 +4306,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4330,24 +4339,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4363,24 +4372,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4389,31 +4398,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,28 +4431,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4455,28 +4464,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4488,28 +4497,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4521,28 +4530,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4554,28 +4563,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4587,28 +4596,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4620,66 +4629,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4973.5950000000003</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>280</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>281</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>29</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>51</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>236</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>282</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>12</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>51</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>103</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4956.9650000000001</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>283</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>284</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>285</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5168,10 +5243,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -548,6 +557,18 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -668,6 +689,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TAVACIN 500MG 5 F.C. TAB</t>
   </si>
   <si>
@@ -800,7 +830,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -860,7 +890,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:04 PM</t>
+    <t>Wednesday, 6 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1828,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1815,7 +1845,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1831,24 +1861,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1857,20 +1887,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1881,7 +1911,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1897,7 +1927,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1923,14 +1953,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1947,7 +1977,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1963,21 +1993,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1989,20 +2019,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2013,7 +2043,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2039,11 +2069,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2072,11 +2102,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2105,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2145,7 +2175,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2161,7 +2191,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2178,7 +2208,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2194,7 +2224,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2220,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2237,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2303,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2340,10 +2370,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2352,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2392,7 +2422,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2458,7 +2488,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2491,7 +2521,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2508,7 +2538,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,7 +2571,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2557,7 +2587,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2574,7 +2604,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2590,7 +2620,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2656,7 +2686,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2689,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2706,7 +2736,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2722,7 +2752,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2755,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2772,7 +2802,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2788,7 +2818,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2821,7 +2851,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2838,7 +2868,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2854,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,14 +2894,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2880,24 +2910,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2920,13 +2950,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2937,7 +2967,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2953,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,11 +2993,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2979,31 +3009,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3019,13 +3049,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3033,10 +3063,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,28 +3075,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3085,7 +3115,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3118,7 +3148,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3151,7 +3181,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3184,7 +3214,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3194,11 +3224,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3210,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3234,7 +3264,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3250,21 +3280,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3276,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3309,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3375,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,7 +3438,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3425,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3474,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,11 +3521,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3507,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3540,31 +3570,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3573,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,20 +3636,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3646,7 +3676,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,7 +3735,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3718,15 +3748,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3738,7 +3768,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3755,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3771,28 +3801,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3804,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,7 +3867,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3854,11 +3884,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3870,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3943,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3960,7 +3990,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3976,7 +4006,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4002,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,11 +4049,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4035,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4068,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,7 +4164,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4151,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4167,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4200,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,28 +4263,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4266,28 +4296,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4299,31 +4329,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,28 +4362,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4365,20 +4395,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4386,10 +4416,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>263</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4398,7 +4428,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4411,18 +4441,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,28 +4461,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4464,31 +4494,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>273</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4504,24 +4534,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,28 +4560,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4563,28 +4593,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4596,28 +4626,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4629,28 +4659,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4662,28 +4692,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4695,66 +4725,165 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4956.9650000000001</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>283</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>284</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>285</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>288</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>89</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>54</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>289</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>29</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>54</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>246</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>12</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>54</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>106</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5265.3149999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>293</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>294</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>295</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5253,10 +5382,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -128,6 +128,30 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>BEDORA TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BLOCKADIPINE 20 MG 10 F.C. TABS</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>38.5000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -140,9 +164,6 @@
     <t>CALAMINE LOTION 120 ML NOVEX</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>47.00</t>
   </si>
   <si>
@@ -173,9 +194,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -404,6 +422,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -467,6 +494,15 @@
     <t>109.5600</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>HEDRALEDOX SYRUP 120 ML</t>
   </si>
   <si>
@@ -512,10 +548,10 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
@@ -584,6 +620,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -602,6 +647,9 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -626,6 +674,12 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -890,7 +944,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:31 PM</t>
+    <t>Wednesday, 6 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,21 +1816,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1788,14 +1842,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1805,14 +1859,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1875,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1838,14 +1892,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1854,14 +1908,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,14 +1925,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1887,28 +1941,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1920,7 +1974,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1937,11 +1991,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1953,31 +2007,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1986,14 +2040,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2003,14 +2057,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,31 +2073,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,14 +2106,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2069,14 +2123,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2085,31 +2139,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2118,14 +2172,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,11 +2189,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2151,14 +2205,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2191,7 +2245,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2255,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2271,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2257,7 +2311,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,7 +2337,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2300,11 +2354,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2316,14 +2370,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2356,7 +2410,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2382,14 +2436,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2422,7 +2476,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2486,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2502,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2469,10 +2523,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2481,7 +2535,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2498,11 +2552,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2514,14 +2568,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2585,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,7 +2625,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,7 +2641,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2620,7 +2674,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2637,7 +2691,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2707,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2670,7 +2724,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2686,7 +2740,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2719,7 +2773,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2752,7 +2806,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2769,7 +2823,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,7 +2839,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2802,7 +2856,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2818,7 +2872,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2851,7 +2905,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2922,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,7 +2938,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2955,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2971,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2981,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,31 +2997,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +3030,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3009,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3080,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3042,28 +3096,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3075,31 +3129,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3179,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3141,14 +3195,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,7 +3228,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3187,15 +3241,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3207,31 +3261,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3257,14 +3311,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,31 +3327,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3377,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3393,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3410,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,14 +3426,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3443,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,31 +3459,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3492,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,11 +3509,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3471,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,11 +3542,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3504,31 +3558,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3591,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3608,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3624,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3641,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,28 +3690,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3669,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,11 +3740,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3702,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3789,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3806,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3768,14 +3822,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,11 +3839,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3801,28 +3855,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3841,7 +3895,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3858,7 +3912,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3880,7 +3934,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3907,7 +3961,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3924,7 +3978,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3940,7 +3994,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,28 +4086,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4065,7 +4119,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4082,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4202,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4204,7 +4258,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4301,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4317,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4296,7 +4350,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4313,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4329,7 +4383,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4346,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,28 +4416,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4395,28 +4449,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4428,31 +4482,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>141</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,31 +4515,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>86</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4567,13 +4621,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4584,7 +4638,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4606,7 +4660,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4633,21 +4687,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4659,28 +4713,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4692,28 +4746,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4725,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,31 +4812,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4791,7 +4845,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4804,15 +4858,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4824,66 +4878,297 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>302</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>95</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>41</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>287</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>303</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>67</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>41</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>92</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>304</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>40</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>41</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>300</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>305</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>29</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>41</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>296</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>306</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>95</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>41</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>307</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
         <v>107</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5265.3149999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>293</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>294</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>295</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>29</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>41</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>264</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>41</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>112</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5596.2349999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>311</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>312</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>313</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5397,10 +5682,45 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:33 PM</t>
+    <t>Wednesday, 6 August, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -710,13 +710,10 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>ROYAL ANISE 50 FILTER BAGS</t>
@@ -3994,7 +3991,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4001,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,7 +4017,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4053,7 +4050,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4070,11 +4067,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4086,7 +4083,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4119,7 +4116,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4136,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4152,7 +4149,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4169,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4185,7 +4182,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4202,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4218,7 +4215,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4235,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4251,7 +4248,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4268,11 +4265,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4284,7 +4281,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4301,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4317,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,11 +4331,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4367,11 +4364,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4383,7 +4380,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4416,7 +4413,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4449,7 +4446,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4466,11 +4463,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4482,7 +4479,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4515,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,7 +4529,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4548,7 +4545,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4581,7 +4578,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4614,7 +4611,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4631,11 +4628,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4647,14 +4644,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,11 +4661,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4680,14 +4677,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,11 +4694,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4730,11 +4727,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4746,14 +4743,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4779,7 +4776,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4796,14 +4793,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,7 +4809,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4829,11 +4826,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>29</v>
@@ -4845,7 +4842,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4862,11 +4859,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4878,14 +4875,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4895,11 +4892,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4911,7 +4908,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4928,11 +4925,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4994,11 +4991,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5010,7 +5007,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5027,11 +5024,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5043,7 +5040,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5060,11 +5057,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5093,11 +5090,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5109,7 +5106,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5138,13 +5135,13 @@
     </row>
     <row r="115" ht="24.75" customHeight="1">
       <c r="P115" s="13">
-        <v>5596.2349999999997</v>
+        <v>5603.2849999999999</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="14">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -5152,13 +5149,13 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c t="s" r="G116" s="15">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
       <c t="s" r="K116" s="17">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -179,6 +179,12 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>CANDALKAN 8MG 14 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -263,6 +269,12 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -308,6 +320,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -359,9 +377,6 @@
     <t>8:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>95.5200</t>
   </si>
   <si>
@@ -413,6 +428,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -548,12 +572,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
   </si>
   <si>
@@ -881,7 +899,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,7 +962,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:34 PM</t>
+    <t>Wednesday, 6 August, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1999,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1992,10 +2013,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2004,31 +2025,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2037,31 +2058,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2070,14 +2091,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2087,14 +2108,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2103,14 +2124,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2136,28 +2157,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2169,31 +2190,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2202,7 +2223,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2219,7 +2240,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2242,7 +2263,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,7 +2273,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2275,7 +2296,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2318,14 +2339,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2334,14 +2355,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2351,11 +2372,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2384,14 +2405,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2400,7 +2421,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2421,7 +2442,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2433,14 +2454,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2471,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2487,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2483,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2499,14 +2520,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2532,14 +2553,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2570,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2598,14 +2619,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2631,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2648,11 +2669,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2697,7 +2718,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2714,11 +2735,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2763,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2801,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2796,7 +2817,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2813,14 +2834,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2829,14 +2850,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2846,11 +2867,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2862,14 +2883,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,11 +2900,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,7 +2982,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3126,31 +3147,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,11 +3230,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3225,28 +3246,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3258,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3275,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,14 +3329,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3324,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3357,7 +3378,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3370,15 +3391,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3390,31 +3411,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3456,31 +3477,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,14 +3527,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3560,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3555,31 +3576,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,28 +3609,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>208</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,14 +3675,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3671,11 +3692,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3687,28 +3708,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,11 +3758,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3753,7 +3774,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3770,14 +3791,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3836,14 +3857,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3885,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3918,31 +3939,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,11 +4055,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4050,31 +4071,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4083,31 +4104,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4187,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4203,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,11 +4220,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4215,28 +4236,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4248,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,11 +4286,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4281,7 +4302,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4298,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4347,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,11 +4385,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4418,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,11 +4484,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4519,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,11 +4616,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4618,7 +4639,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,31 +4665,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4677,28 +4698,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4710,28 +4731,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4743,31 +4764,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4826,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4875,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4908,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5014,7 +5035,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5045,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5040,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5078,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5073,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,11 +5111,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5106,14 +5127,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5123,49 +5144,181 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5603.2849999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>310</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>311</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>29</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>41</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>302</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>312</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>99</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>41</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>313</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>315</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>29</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>41</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>269</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>12</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>41</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>118</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>5837.2849999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>317</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>318</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>319</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5714,10 +5867,30 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>141.00</t>
   </si>
   <si>
-    <t>14.1000</t>
+    <t>21.1500</t>
   </si>
   <si>
     <t>ROYAL ANISE 50 FILTER BAGS</t>
@@ -962,7 +962,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:38 PM</t>
+    <t>Wednesday, 6 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4144,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4161,7 +4161,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -5288,7 +5288,7 @@
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="P119" s="13">
-        <v>5837.2849999999999</v>
+        <v>5844.335</v>
       </c>
       <c r="Q119" s="13"/>
     </row>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 8:42 PM</t>
+    <t>Wednesday, 6 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CEREBROFORTE 20% SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -410,6 +419,12 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -434,9 +449,6 @@
     <t>138.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -962,7 +974,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:05 PM</t>
+    <t>Wednesday, 6 August, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,21 +2209,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2223,20 +2235,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2247,7 +2259,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2273,11 +2285,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2306,11 +2318,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2372,11 +2384,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2412,7 +2424,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2428,7 +2440,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2445,7 +2457,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2461,7 +2473,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2640,10 +2652,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2791,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2808,7 +2820,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2841,7 +2853,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2857,24 +2869,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2883,7 +2895,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2949,7 +2961,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2982,7 +2994,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3032,11 +3044,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3048,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3098,14 +3110,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,14 +3275,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3279,31 +3291,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3345,31 +3357,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3385,13 +3397,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3402,7 +3414,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3418,21 +3430,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3444,31 +3456,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,31 +3489,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3517,7 +3529,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3609,31 +3621,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3675,28 +3687,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3708,28 +3720,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3781,24 +3793,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3840,7 +3852,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,7 +3902,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3979,7 +3991,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,11 +4067,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4071,31 +4083,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,7 +4149,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4150,18 +4162,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4210,7 +4222,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4227,7 +4239,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4249,15 +4261,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4293,7 +4305,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4309,24 +4321,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4573,7 +4585,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4599,7 +4611,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4639,7 +4651,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4649,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4672,7 +4684,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4705,7 +4717,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4727,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4738,7 +4750,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4748,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4764,7 +4776,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4804,21 +4816,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4830,31 +4842,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4880,11 +4892,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4913,11 +4925,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4946,14 +4958,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4962,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,11 +5189,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5193,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,11 +5222,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5243,11 +5255,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5266,7 +5278,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5276,49 +5288,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>118</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>119</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>5844.335</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>317</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>318</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>319</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>29</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>41</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>273</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>12</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>41</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>121</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5975.335</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>321</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>322</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>323</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5887,10 +5965,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -449,13 +458,16 @@
     <t>138.00</t>
   </si>
   <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
     <t>117.00</t>
   </si>
   <si>
-    <t>38.6100</t>
+    <t>77.2200</t>
   </si>
   <si>
     <t>EXAMIDE 20 MG 30TABS</t>
@@ -566,6 +578,15 @@
     <t>HISTAZINE-1 10MG 20 TAB</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>IVYWONDER ACNE PRONE SKIN GEL</t>
   </si>
   <si>
@@ -773,9 +794,6 @@
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>24.7500</t>
   </si>
   <si>
@@ -974,7 +992,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:10 PM</t>
+    <t>Wednesday, 6 August, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1666,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1658,14 +1676,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1830,7 +1848,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1846,24 +1864,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1872,20 +1890,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1896,7 +1914,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1912,7 +1930,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1929,7 +1947,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1945,7 +1963,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1962,7 +1980,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1978,7 +1996,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2011,7 +2029,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2025,7 +2043,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2077,24 +2095,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2103,20 +2121,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2127,7 +2145,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2143,7 +2161,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2193,7 +2211,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2209,7 +2227,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2242,21 +2260,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2268,20 +2286,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2292,7 +2310,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2308,7 +2326,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2336,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2402,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,11 +2435,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2457,7 +2475,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2473,7 +2491,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2490,7 +2508,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2506,7 +2524,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2685,10 +2703,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,14 +2715,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2737,7 +2755,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2803,7 +2821,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2836,7 +2854,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2853,7 +2871,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2869,24 +2887,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,24 +2913,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2935,7 +2953,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2952,7 +2970,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2968,7 +2986,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2982,10 +3000,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,7 +3045,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3095,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,11 +3194,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,28 +3375,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3390,31 +3408,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3456,31 +3474,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,31 +3507,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,31 +3540,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,31 +3573,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3639,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,11 +3656,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3694,24 +3712,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3744,7 +3762,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3760,24 +3778,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>218</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3903,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,7 +3936,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3935,14 +3953,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,14 +3986,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,7 +4002,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4050,14 +4068,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,11 +4085,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4118,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4116,14 +4134,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4149,31 +4167,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,31 +4233,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4283,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,28 +4332,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,31 +4398,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4431,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4481,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4486,7 +4504,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4503,7 +4521,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4519,7 +4537,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4536,7 +4554,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4552,7 +4570,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4580,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4646,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4679,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4677,7 +4695,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4694,11 +4712,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,14 +4745,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4811,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4844,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,7 +4860,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,28 +4893,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4908,31 +4926,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4948,21 +4966,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4974,28 +4992,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5007,31 +5025,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>301</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,31 +5058,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5080,24 +5098,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>307</v>
-      </c>
-      <c t="s" r="Q112" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5113,24 +5131,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5139,28 +5157,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5172,28 +5190,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>100</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5205,28 +5223,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5238,28 +5256,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5271,28 +5289,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5304,28 +5322,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5337,66 +5355,132 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>122</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5975.335</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>322</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>323</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>325</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>32</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>44</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>279</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>12</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>44</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>124</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6134.9449999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>327</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>328</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>329</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6059,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -506,6 +506,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 30 GM</t>
   </si>
   <si>
@@ -965,15 +971,30 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز رجالي </t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>مجموعه برد</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -992,7 +1013,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:12 PM</t>
+    <t>Wednesday, 6 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3217,7 +3238,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3293,11 +3314,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>19</v>
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3415,21 +3436,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,11 +3512,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>19</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>19</v>
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3613,24 +3634,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3656,14 +3677,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3672,14 +3693,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3689,11 +3710,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3755,11 +3776,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3771,31 +3792,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3804,28 +3825,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>19</v>
@@ -3837,7 +3858,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3854,7 +3875,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3877,21 +3898,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>19</v>
@@ -3903,7 +3924,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3916,15 +3937,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>19</v>
@@ -3936,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>225</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>19</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4002,7 +4023,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4019,11 +4040,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>19</v>
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4052,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>19</v>
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4118,11 +4139,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4151,11 +4172,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4167,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4184,11 +4205,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4207,7 +4228,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4221,7 +4242,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4233,31 +4254,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4266,7 +4287,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4279,15 +4300,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>19</v>
@@ -4299,7 +4320,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4316,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4332,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4365,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4398,28 +4419,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4431,31 +4452,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4464,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4481,7 +4502,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4504,7 +4525,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4514,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4530,7 +4551,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4547,11 +4568,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4563,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4580,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4596,7 +4617,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4613,11 +4634,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>19</v>
@@ -4629,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4646,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4662,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4695,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,11 +4733,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>164</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4728,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4761,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4778,11 +4799,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4794,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4811,14 +4832,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4910,11 +4931,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4943,14 +4964,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>96</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4959,31 +4980,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4992,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5009,11 +5030,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5032,7 +5053,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5042,11 +5063,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5065,7 +5086,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5075,11 +5096,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5098,7 +5119,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5108,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>307</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5124,7 +5145,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5141,14 +5162,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>32</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5157,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5174,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5190,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5207,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5223,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5240,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5256,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5273,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5289,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5306,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5322,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5339,11 +5360,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5355,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5372,11 +5393,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5388,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5405,11 +5426,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5421,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5438,49 +5459,181 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>328</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>32</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>44</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>314</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>329</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>105</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>44</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>330</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>332</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>32</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>44</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>281</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>333</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>44</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>124</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6134.9449999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>327</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>328</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
-        <v>329</v>
-      </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6341.9449999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>334</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>335</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>336</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6069,10 +6222,30 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -557,6 +557,18 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HEDRALEDOX SYRUP 120 ML</t>
   </si>
   <si>
@@ -1013,7 +1025,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:18 PM</t>
+    <t>Wednesday, 6 August, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3436,7 +3448,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3462,28 +3474,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3495,31 +3507,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>19</v>
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>19</v>
@@ -3594,31 +3606,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,31 +3672,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3722,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3838,7 +3850,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3849,7 +3861,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,21 +3877,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>19</v>
@@ -3891,7 +3903,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>19</v>
@@ -3924,28 +3936,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>19</v>
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3970,15 +3982,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>19</v>
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4023,7 +4035,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>19</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,7 +4068,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>19</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4118,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>19</v>
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,11 +4184,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,11 +4250,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,11 +4283,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4287,31 +4299,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,7 +4332,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4333,15 +4345,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>19</v>
@@ -4353,7 +4365,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4452,28 +4464,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4485,31 +4497,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>19</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,7 +4596,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4601,11 +4613,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,7 +4662,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4667,11 +4679,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>19</v>
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4707,7 +4719,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4723,7 +4735,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,11 +4844,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4848,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4910,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4926,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4943,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,20 +5025,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5037,7 +5049,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5063,11 +5075,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,11 +5141,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,14 +5174,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,7 +5190,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>32</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5294,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5343,14 +5355,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,11 +5372,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>102</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5475,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,11 +5504,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5508,14 +5520,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,11 +5537,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5541,14 +5553,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5558,11 +5570,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5591,49 +5603,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>337</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>12</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>44</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>124</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6341.9449999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>334</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>335</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>336</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>6465.9449999999997</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>338</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>339</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>340</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6242,10 +6287,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:20 PM</t>
+    <t>Wednesday, 6 August, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -842,6 +842,9 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
   </si>
   <si>
@@ -851,6 +854,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -941,9 +953,6 @@
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1025,7 +1034,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:22 PM</t>
+    <t>Wednesday, 6 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4702,7 +4711,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4811,11 +4820,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4834,7 +4843,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,11 +4853,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4860,7 +4869,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4877,11 +4886,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4900,7 +4909,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4933,7 +4942,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4966,7 +4975,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4999,7 +5008,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5025,7 +5034,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5065,21 +5074,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>96</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5091,31 +5100,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5141,11 +5150,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5339,11 +5348,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5372,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5395,7 +5404,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5405,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5428,7 +5437,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,11 +5447,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5461,7 +5470,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5471,11 +5480,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,11 +5546,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5553,7 +5562,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5570,11 +5579,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5586,7 +5595,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5603,11 +5612,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5636,49 +5645,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>124</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>339</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>32</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>44</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>289</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>340</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>12</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>44</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>124</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>125</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>6465.9449999999997</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>338</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>339</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>340</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6571.9449999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>341</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>342</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>343</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6292,10 +6367,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -128,6 +128,30 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -140,12 +164,6 @@
     <t>BEDORA TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>C-RETARD 500MG 10 CAPS</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -776,6 +791,9 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -1034,7 +1052,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:34 PM</t>
+    <t>Wednesday, 6 August, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1924,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1956,7 +1974,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1972,7 +1990,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2005,13 +2023,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2038,7 +2056,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2055,7 +2073,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2071,7 +2089,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2088,7 +2106,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2104,7 +2122,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2118,7 +2136,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2163,20 +2181,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2184,7 +2202,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2196,7 +2214,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2213,11 +2231,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>19</v>
@@ -2229,31 +2247,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2319,7 +2337,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2335,21 +2353,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2378,14 +2396,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2394,31 +2412,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2427,14 +2445,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2444,11 +2462,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>19</v>
@@ -2460,14 +2478,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2477,14 +2495,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2493,14 +2511,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2510,14 +2528,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2533,7 +2551,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2543,14 +2561,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2599,7 +2617,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2609,14 +2627,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2625,14 +2643,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2708,14 +2726,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2757,14 +2775,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,14 +2792,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2814,7 +2832,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2830,7 +2848,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2856,7 +2874,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2873,11 +2891,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2924,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2922,7 +2940,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2955,24 +2973,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3012,7 +3030,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3028,24 +3046,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,11 +3221,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>19</v>
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3325,7 +3343,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,14 +3386,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,11 +3452,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>19</v>
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3516,20 +3534,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3556,7 +3574,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3582,31 +3600,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3615,7 +3633,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3632,11 +3650,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>19</v>
@@ -3648,31 +3666,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3681,28 +3699,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>19</v>
@@ -3721,24 +3739,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3747,31 +3765,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3830,11 +3848,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3846,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,11 +3881,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3879,31 +3897,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,24 +3963,24 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3985,13 +4003,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4018,7 +4036,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>19</v>
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,11 +4112,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>19</v>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>19</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4160,11 +4178,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>19</v>
@@ -4176,7 +4194,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4209,14 +4227,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,11 +4277,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,11 +4343,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4348,13 +4366,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4362,10 +4380,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4407,7 +4425,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4420,18 +4438,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,11 +4508,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4506,31 +4524,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,14 +4574,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4572,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4612,21 +4630,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4638,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4671,7 +4689,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4688,11 +4706,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>19</v>
@@ -4704,7 +4722,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4721,11 +4739,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4737,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4754,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4803,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4836,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4869,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,11 +4937,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4935,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4968,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5001,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5034,7 +5052,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5051,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5067,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,14 +5118,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5117,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5133,28 +5151,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5166,28 +5184,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>102</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5199,31 +5217,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5232,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,11 +5267,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5265,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>316</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5305,7 +5323,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5319,10 +5337,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5331,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,11 +5366,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5364,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,14 +5399,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5397,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5414,14 +5432,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5430,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,11 +5465,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5463,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5484,7 +5502,7 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5496,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>72</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5529,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5546,11 +5564,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5562,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5595,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5612,11 +5630,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5628,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5645,11 +5663,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5661,14 +5679,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5678,11 +5696,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5694,14 +5712,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5711,49 +5729,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>342</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>110</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>44</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>343</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
         <v>125</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6571.9449999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>341</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>342</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>343</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>345</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>32</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>44</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>295</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>346</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>12</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>44</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>129</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6794.9449999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>347</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>348</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>349</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6377,10 +6494,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>BEDORA TAB</t>
   </si>
   <si>
@@ -467,6 +476,12 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>ESMATAC 40 MG 28D.R. CAPS. (N/A)</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -527,6 +542,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 30 GM</t>
   </si>
   <si>
@@ -584,18 +611,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HEDRALEDOX SYRUP 120 ML</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>HERO VITAMIN DROPS</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
     <t>32.0000</t>
   </si>
   <si>
@@ -884,9 +911,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -1052,7 +1076,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:36 PM</t>
+    <t>Wednesday, 6 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,13 +2047,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2062,7 +2086,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2089,7 +2113,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2122,7 +2146,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2139,7 +2163,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2202,7 +2226,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2254,24 +2278,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2280,20 +2304,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2304,7 +2328,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2320,7 +2344,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2370,7 +2394,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2386,7 +2410,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2419,21 +2443,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2445,20 +2469,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2469,7 +2493,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2495,11 +2519,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>19</v>
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2528,11 +2552,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>19</v>
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2634,7 +2658,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2650,7 +2674,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2693,14 +2717,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2726,14 +2750,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2862,10 +2886,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2914,7 +2938,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2980,7 +3004,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3013,7 +3037,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3030,7 +3054,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3046,24 +3070,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3072,24 +3096,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3112,7 +3136,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3129,7 +3153,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3145,7 +3169,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3162,7 +3186,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3178,7 +3202,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3192,10 +3216,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,11 +3311,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>19</v>
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3353,14 +3377,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3376,7 +3400,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3409,7 +3433,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,14 +3443,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3475,7 +3499,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3492,7 +3516,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3541,7 +3565,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3607,13 +3631,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3624,7 +3648,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3640,7 +3664,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,31 +3690,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3716,14 +3740,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3739,7 +3763,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3749,11 +3773,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3765,28 +3789,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>19</v>
@@ -3805,7 +3829,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3838,7 +3862,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3855,7 +3879,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3877,7 +3901,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3904,13 +3928,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3918,10 +3942,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3963,31 +3987,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3996,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4070,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,31 +4086,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,28 +4119,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>19</v>
@@ -4135,7 +4159,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4161,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,7 +4202,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4201,21 +4225,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>19</v>
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,11 +4268,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>19</v>
@@ -4277,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4293,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,14 +4334,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,14 +4350,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,14 +4367,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4359,14 +4383,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4376,14 +4400,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4392,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4425,31 +4449,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4465,7 +4489,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4499,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,11 +4532,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4524,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4541,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,31 +4581,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4607,14 +4631,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4623,7 +4647,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4636,15 +4660,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4656,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4689,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4729,7 +4753,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4762,21 +4786,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4788,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,11 +4829,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>19</v>
@@ -4821,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4838,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,14 +4895,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4887,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,11 +4994,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4986,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5027,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5060,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5059,7 +5083,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5092,7 +5116,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5126,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5158,7 +5182,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5168,11 +5192,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5191,7 +5215,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5225,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5217,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5234,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5263,7 +5287,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5271,10 +5295,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,28 +5307,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5316,28 +5340,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5349,31 +5373,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>322</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5422,7 +5446,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,11 +5489,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5481,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5514,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5555,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5588,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,11 +5621,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5613,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5654,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5646,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5687,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5679,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5720,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5712,14 +5736,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,11 +5753,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5745,14 +5769,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5762,11 +5786,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>41</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>344</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5778,14 +5802,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5795,11 +5819,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5811,14 +5835,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5828,49 +5852,181 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>349</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>32</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>44</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>335</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>350</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>113</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>44</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>351</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>352</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>353</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>32</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>44</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>303</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
         <v>130</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6794.9449999999997</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>347</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>348</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>349</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>354</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>12</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>44</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>132</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6987.9449999999997</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>355</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>356</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>357</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6509,10 +6665,30 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>207.4800</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
     <t>53.0000</t>
   </si>
   <si>
@@ -1076,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:38 PM</t>
+    <t>Wednesday, 6 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2905,7 +2911,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2919,10 +2925,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2971,7 +2977,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3014,14 +3020,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3037,7 +3043,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3070,7 +3076,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3087,7 +3093,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3103,24 +3109,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3129,24 +3135,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3169,7 +3175,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3186,7 +3192,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3202,7 +3208,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3216,7 +3222,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>19</v>
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3268,7 +3274,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3285,7 +3291,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3318,7 +3324,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3334,7 +3340,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>19</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>19</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3426,7 +3432,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3466,7 +3472,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3509,14 +3515,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>19</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3690,24 +3696,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3730,13 +3736,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3744,7 +3750,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3756,28 +3762,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3796,24 +3802,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>19</v>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3872,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>19</v>
@@ -3888,31 +3894,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3961,24 +3967,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4020,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4037,11 +4043,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4053,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4070,11 +4076,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,11 +4109,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4119,31 +4125,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4152,28 +4158,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>19</v>
@@ -4185,7 +4191,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4202,7 +4208,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4225,21 +4231,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>19</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4264,15 +4270,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>19</v>
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4301,14 +4307,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4334,14 +4340,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>19</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4367,11 +4373,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>19</v>
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>19</v>
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4466,11 +4472,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4482,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4505,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,11 +4538,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4555,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4581,31 +4587,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4614,7 +4620,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4627,15 +4633,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>19</v>
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4680,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4713,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4730,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>75</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4746,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4779,28 +4785,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4812,31 +4818,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,7 +4868,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4885,7 +4891,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4911,7 +4917,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4944,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4977,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5027,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5076,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5109,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5175,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5192,11 +5198,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5208,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,11 +5231,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5274,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,14 +5313,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,11 +5363,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5373,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,14 +5396,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5406,31 +5412,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5439,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5456,11 +5462,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5479,7 +5485,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5489,11 +5495,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5512,7 +5518,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5522,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5538,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5555,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5571,7 +5577,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5588,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>32</v>
+        <v>332</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5604,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5637,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5660,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5670,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,11 +5693,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5710,7 +5716,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,11 +5726,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5736,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5776,7 +5782,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5792,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5802,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,11 +5825,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5835,14 +5841,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5852,11 +5858,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5868,14 +5874,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5885,11 +5891,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5901,14 +5907,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5918,11 +5924,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5934,14 +5940,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5951,11 +5957,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -5967,14 +5973,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5984,49 +5990,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>6987.9449999999997</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>355</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>356</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>12</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>44</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>135</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7093.9449999999997</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>357</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>358</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>359</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6685,10 +6724,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -350,423 +350,426 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>207.4800</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ESMATAC 40 MG 28D.R. CAPS. (N/A)</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>109.5600</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>HEDRALEDOX SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>36.00</t>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>73.6000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>27.5000</t>
+  </si>
+  <si>
+    <t>NEBILET 5MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NO-URIC 100MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
   </si>
   <si>
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>-13.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>207.4800</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>106.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROPEGEN 30 ML  DROPS</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ESMATAC 40 MG 28D.R. CAPS. (N/A)</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>77.2200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>109.5600</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>HEDRALEDOX SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>HERO VITAMIN DROPS</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>IVYWONDER ACNE PRONE SKIN GEL</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LIMITLESS MAN MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NARJI VIALS</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>73.6000</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>27.5000</t>
-  </si>
-  <si>
-    <t>NEBILET 5MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>NO-URIC 100MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ONE ALPHA 0.25MCG 30 CAPS</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -1016,9 +1019,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:41 PM</t>
+    <t>Wednesday, 6 August, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2763,7 +2763,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>19</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2838,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2871,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2921,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3003,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3024,10 +3024,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>140</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3119,11 +3119,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>40</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>19</v>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3251,11 +3251,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>19</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3317,11 +3317,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>74</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>19</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>19</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3416,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>19</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3498,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,11 +3515,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>19</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>19</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>19</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>36</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>19</v>
@@ -3696,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3713,11 +3713,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3729,14 +3729,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3762,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>19</v>
@@ -3967,7 +3967,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4000,7 +4000,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,14 +4010,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4026,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4043,14 +4043,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4066,7 +4066,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4099,7 +4099,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4132,7 +4132,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4158,31 +4158,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4191,28 +4191,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>19</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>19</v>
@@ -4257,28 +4257,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>19</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4303,15 +4303,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>19</v>
@@ -4323,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,14 +4340,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>19</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4406,11 +4406,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>19</v>
@@ -4422,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,11 +4439,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>19</v>
@@ -4455,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4488,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,11 +4505,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4528,7 +4528,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,11 +4538,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4561,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,11 +4571,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4587,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,11 +4604,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4620,31 +4620,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4666,15 +4666,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>19</v>
@@ -4686,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4726,7 +4726,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4752,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,14 +4769,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4792,7 +4792,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,11 +4802,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4818,28 +4818,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4858,24 +4858,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,11 +4901,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>19</v>
@@ -4917,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4983,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5016,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5056,7 +5056,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5082,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5115,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5181,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5221,7 +5221,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,11 +5231,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5254,7 +5254,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5280,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>23</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5320,7 +5320,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,14 +5330,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,14 +5346,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5363,14 +5363,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5386,7 +5386,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,11 +5396,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5419,7 +5419,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,14 +5429,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>105</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5445,31 +5445,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,11 +5495,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5511,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5544,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,11 +5561,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5584,7 +5584,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5627,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>32</v>
+        <v>333</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5643,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,14 +5660,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5676,14 +5676,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5693,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5709,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,11 +5726,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5742,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,11 +5759,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5775,14 +5775,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,11 +5792,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5808,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5841,14 +5841,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,11 +5858,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5874,14 +5874,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5907,14 +5907,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5924,11 +5924,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5940,14 +5940,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5957,11 +5957,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -5973,14 +5973,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5990,11 +5990,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6006,14 +6006,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6023,49 +6023,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7093.9449999999997</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>356</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>12</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>44</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>134</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7160.8249999999998</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
         <v>357</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
         <v>358</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
         <v>359</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6729,10 +6762,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:43 PM</t>
+    <t>Wednesday, 6 August, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5895,10 +5895,10 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6068,7 +6068,7 @@
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="P139" s="13">
-        <v>7160.8249999999998</v>
+        <v>7168.8249999999998</v>
       </c>
       <c r="Q139" s="13"/>
     </row>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:45 PM</t>
+    <t>Wednesday, 6 August, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-06_00-00.xlsx
+++ b/DaySale_2025-08-06_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -278,7 +287,7 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>62.0000</t>
+    <t>124.0000</t>
   </si>
   <si>
     <t>CEVA-FRESH TAB</t>
@@ -464,9 +473,6 @@
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
     <t>52.0000</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -611,9 +614,6 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
-  </si>
-  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -662,6 +662,9 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -749,6 +752,15 @@
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
+    <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>NO-URIC 100MG 50 TAB.</t>
   </si>
   <si>
@@ -854,6 +866,9 @@
     <t>RX MASSAGE SPRAY</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -1001,6 +1016,15 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>راجون احمر 250 مل</t>
   </si>
   <si>
@@ -1016,9 +1040,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سلاكه ازن خشب كبيره</t>
   </si>
   <si>
@@ -1082,7 +1103,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 6 August, 2025 9:46 PM</t>
+    <t>Wednesday, 6 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,7 +1909,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1931,14 +1952,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1947,14 +1968,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1964,14 +1985,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1980,31 +2001,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2013,20 +2034,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -2037,7 +2058,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2053,7 +2074,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2086,13 +2107,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2119,13 +2140,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2152,7 +2173,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2185,7 +2206,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2202,7 +2223,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2218,7 +2239,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2251,7 +2272,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2265,7 +2286,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2317,24 +2338,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2343,20 +2364,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2367,7 +2388,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2383,7 +2404,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2433,7 +2454,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2482,24 +2503,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2508,20 +2529,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2532,7 +2553,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2558,11 +2579,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>19</v>
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2591,11 +2612,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>19</v>
@@ -2607,14 +2628,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2657,11 +2678,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2697,7 +2718,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2713,7 +2734,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2928,7 +2949,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2944,7 +2965,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2958,10 +2979,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2970,7 +2991,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -3010,7 +3031,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3076,7 +3097,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3109,7 +3130,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3123,10 +3144,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3135,31 +3156,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3168,24 +3189,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3208,7 +3229,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>19</v>
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3288,10 +3309,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3333,7 +3354,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3373,7 +3394,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3383,11 +3404,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>19</v>
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3416,11 +3437,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>19</v>
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3482,14 +3503,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,11 +3635,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>19</v>
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3647,14 +3668,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3713,14 +3734,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3729,28 +3750,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3762,24 +3783,24 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3795,28 +3816,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3828,31 +3849,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3878,11 +3899,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>19</v>
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,11 +3932,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>19</v>
@@ -3927,31 +3948,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3960,31 +3981,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4026,31 +4047,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4076,11 +4097,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>72</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4163,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4175,11 +4196,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4191,31 +4212,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,28 +4278,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>19</v>
@@ -4290,28 +4311,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>19</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,11 +4361,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>19</v>
@@ -4356,31 +4377,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4410,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4406,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>19</v>
@@ -4422,7 +4443,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4439,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4455,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4488,7 +4509,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4505,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4521,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4554,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4587,7 +4608,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4604,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4627,7 +4648,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4653,31 +4674,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4686,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4703,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4719,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,11 +4757,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4752,7 +4773,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4765,18 +4786,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>157</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4785,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4851,31 +4872,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     